--- a/Coronavirus/Assets/Resources/Localization/News.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E46239-0A4F-4EE9-8F6A-672477A7EE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD914E66-7D2E-403C-9CB8-8B40784023F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="0" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响力达到了{0}值</t>
+    <t>Test_News2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test_News2</t>
+    <t>当前的影响力达到了{0}值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻测试2</t>
+    <t>新闻测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -425,12 +426,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/Coronavirus/Assets/Resources/Localization/News.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/News.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD914E66-7D2E-403C-9CB8-8B40784023F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512C494-74C3-4B10-863B-12B288BF0345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="972" yWindow="1248" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Coronavirus/Assets/Resources/Localization/News.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512C494-74C3-4B10-863B-12B288BF0345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E783C-8C70-42FB-9DE5-8CBDF69F80E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="1248" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="11592" yWindow="1920" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Influence_Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test_News2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前的影响力达到了{0}值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新闻测试</t>
+    <t>各地医院将患者与医生的生活区进行隔离，防止疾病在医患之间交叉感染。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocPatIso_News</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病房改造工作正式开始实施，各地将按照规范要求进行病区搬迁改造工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WardReform</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,15 +434,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus/Assets/Resources/Localization/News.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/News.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\游戏项目\Unity\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E783C-8C70-42FB-9DE5-8CBDF69F80E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E503B27-3E71-4FB8-98DD-83C38D618F55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11592" yWindow="1920" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Influence_Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>当前的影响力达到了{0}值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,37 +41,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DocPatIso_News</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>病房改造工作正式开始实施，各地将按照规范要求进行病区搬迁改造工作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WardReform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DocPatIso_News</t>
+  </si>
+  <si>
+    <t>Influence_Value</t>
+  </si>
+  <si>
+    <t>DormitoryRequisition_News</t>
+  </si>
+  <si>
+    <t>BanningTransaction_News</t>
+  </si>
+  <si>
+    <t>TrafficCoordination_News</t>
+  </si>
+  <si>
+    <t>BackProtection_News</t>
+  </si>
+  <si>
+    <t>VolunteerService_News</t>
+  </si>
+  <si>
+    <t>IncreaseProductivity_News</t>
+  </si>
+  <si>
+    <t>StabilizeStock_News</t>
+  </si>
+  <si>
+    <t>GoToDoc_News</t>
+  </si>
+  <si>
+    <t>UnitedPeople_News</t>
+  </si>
+  <si>
+    <t>PlasmaDonation_News</t>
+  </si>
+  <si>
+    <t>SymptomsPublicity_News</t>
+  </si>
+  <si>
+    <t>ReplenishTruth_News</t>
+  </si>
+  <si>
+    <t>CloudSupervisor_News</t>
+  </si>
+  <si>
+    <t>ContactSurvey_News</t>
+  </si>
+  <si>
+    <t>PathwaySurvey_News</t>
+  </si>
+  <si>
+    <t>ReportBonus_News</t>
+  </si>
+  <si>
+    <t>InfraredMeasurement_News</t>
+  </si>
+  <si>
+    <t>ForcedMask_News</t>
+  </si>
+  <si>
+    <t>ReducedEntertainment_News</t>
+  </si>
+  <si>
+    <t>GovernmentBonds_News</t>
+  </si>
+  <si>
+    <t>PrimaryResponse_News</t>
+  </si>
+  <si>
+    <t>DirectReporting_News</t>
+  </si>
+  <si>
+    <t>ExpediteDistribution_News</t>
+  </si>
+  <si>
+    <t>RotationSystem_News</t>
+  </si>
+  <si>
+    <t>ElectronicManagement_News</t>
+  </si>
+  <si>
+    <t>PartyOrganization_News</t>
+  </si>
+  <si>
+    <t>FemaleSupplement_News</t>
+  </si>
+  <si>
+    <t>ContractedMedical_News</t>
+  </si>
+  <si>
+    <t>CaseScreening_News</t>
+  </si>
+  <si>
+    <t>LowerStandards_News</t>
+  </si>
+  <si>
+    <t>VideoSurvey_News</t>
+  </si>
+  <si>
+    <t>ClinicalDiagnosis_News</t>
+  </si>
+  <si>
+    <t>LgMDetection_News</t>
+  </si>
+  <si>
+    <t>DrugPractice_News</t>
+  </si>
+  <si>
+    <t>DrugScreening_News</t>
+  </si>
+  <si>
+    <t>CombinationCW_News</t>
+  </si>
+  <si>
+    <t>InternationalSupport_News</t>
+  </si>
+  <si>
+    <t>WardReform_News</t>
+  </si>
+  <si>
+    <t>近日，武汉市决定征用市属高校部分学生宿舍，简易改造后用于收治轻症患者。</t>
+  </si>
+  <si>
+    <t>2月24日，十三届全国人大常委会第十六次会议表决明确全面禁止食用野生动物。</t>
+  </si>
+  <si>
+    <t>为坚决阻断疫情，确保防疫应急运输，国家开始加强对交通的协调工作。</t>
+  </si>
+  <si>
+    <t>为全力服务保障各地重点项目和企业复工复产，各地政府推出各类政务服务事项。</t>
+  </si>
+  <si>
+    <t>为配合做好疫情防控工作，各地机关向社会招募了志愿者。</t>
+  </si>
+  <si>
+    <t>在各方面共同努力下，较短时间内实现了全国医用防护服、口罩等产能和产量都成倍增长。</t>
+  </si>
+  <si>
+    <t>突发的疫情让中国股市受到惊吓，各部委积极协作，权威媒体鼓劲，成功稳定了股市。</t>
+  </si>
+  <si>
+    <t>各地各单位通过广播电视、报刊、微信客户端等形式加强宣传，引导患者合理选择就医。</t>
+  </si>
+  <si>
+    <t>党员干部用心守护，群众也纷纷参与其中，用实际行动汇聚起抗击疫情的强大力量。</t>
+  </si>
+  <si>
+    <t>采用血浆治疗是一种探索性的治疗，恢复期血浆可以救治重症、危重症患者。</t>
+  </si>
+  <si>
+    <t>各地通过媒体、网络等渠道，向群众宣传展示主要症状，大量疑似患者得以及时就医。</t>
+  </si>
+  <si>
+    <t>中国互联网联合辟谣平台，持续粉碎谣言，为公众还原真相，科学防控，抗击疫情！</t>
+  </si>
+  <si>
+    <t>“云监工”中同步在线的网民人数超过5000万，一同见证了与疫情赛跑的中国速度。</t>
+  </si>
+  <si>
+    <t>各地开始对疫情防控重点地区开展接触情况调查，这将大大加强新型冠状病毒感染的肺炎疫情防控工作。</t>
+  </si>
+  <si>
+    <t>各地开始协调对疫情传播途径开展联合调查，这将大大加强新型冠状病毒感染的肺炎疫情防控工作。</t>
+  </si>
+  <si>
+    <t>为鼓励疑似患者主动上报病情，加强疫情防控工作，政府决定对主动上报者给予适当津贴以资鼓励。</t>
+  </si>
+  <si>
+    <t>红外测温方式具有无接触式测温、自动抓取发热人群等优势，广泛应用之后大大避免了发热疑似人群扩散疫情。</t>
+  </si>
+  <si>
+    <t>在疫情防控期间，市民外出至公共场所或出现发热等症状均需戴口罩，既是道德义务，也是法律义务！</t>
+  </si>
+  <si>
+    <t>疫情发生后，政府出台政策暂停各地的娱乐活动、设施，减少娱乐节目比例，禁止聚众赌博。</t>
+  </si>
+  <si>
+    <t>发行特别国债可增加全社会的广义信贷，弥补疫情阶段的商业贷款下降，有助于保持广义信贷增长的基本稳定。</t>
+  </si>
+  <si>
+    <t>截至2020年1月29日，全国共有31个省份启动重大突发公共卫生事件一级响应。</t>
+  </si>
+  <si>
+    <t>我国已经建成了全球规模最大的传染病疫情和突发公共卫生事件网络直报系统。</t>
+  </si>
+  <si>
+    <t>疫情就是命令，时间就是生命，由国家到地方实行快速发放政策，保障各地传染病医院迅速获取试纸进行检测。</t>
+  </si>
+  <si>
+    <t>轮休制度等相关措施的推行，保障一线医务人员既完成好患者救治工作，同时也最大限度维护身心健康。</t>
+  </si>
+  <si>
+    <t>疫情下，各地医院开始推行更全面的电子化管理，医生对患者的管理更加高效快速，而同时也减少了医生对患者的接触。</t>
+  </si>
+  <si>
+    <t>党组织战斗堡垒作用和广大党员先锋模范作用，大大凝聚了人心。</t>
+  </si>
+  <si>
+    <t>政府决定对女性提供额外的物资、资金补助，保障女性医疗人员的生活健康。</t>
+  </si>
+  <si>
+    <t>各地发挥就地就近优势，结合当地医院疫情防控资金保障面临的困难，推行了各种完善疫情防控财政资金保障的政策。</t>
+  </si>
+  <si>
+    <t>各地政府开始对有感染新冠病毒风险的人群进行严格筛查，以此从源头控制住疫情的蔓延和扩散。</t>
+  </si>
+  <si>
+    <t>有关部门适时适当地降低了确诊的评价标准，以最大限度确保新冠型病毒患者都能够及时得到有效的治疗。</t>
+  </si>
+  <si>
+    <t>新冠状病毒蔓延之下，医生需要寻求更加快捷的诊断方式。除了试剂检测之外，胸部CT的影像识别也成为了筛查病人的主要手段。</t>
+  </si>
+  <si>
+    <t>将临床诊断纳入新增确诊，拓宽了病例确诊的渠道，也是战“疫”过程中直面现实、不逃避的表现，证明湖北乃至全国对疫情防控更有底气，战“疫“胜利只是时间问题。</t>
+  </si>
+  <si>
+    <t>基蛋生物科技有限公司率科研团队攻坚克难，成功研发并推出用于2019-nCoV检测的IgM/IgG抗体检测试剂盒。</t>
+  </si>
+  <si>
+    <t>多家医疗机构正在就抗疫药物组织开展临床试验以及研究药物的安全性和有效性。</t>
+  </si>
+  <si>
+    <t>国家特事特办攻关，加速推进药物筛选相关工作。在抗新冠病毒药物筛选方面取得重要进展。</t>
+  </si>
+  <si>
+    <t>各地区贯彻中西医并重的原则，集中科研力量开展应急防治多学科科研攻关。</t>
+  </si>
+  <si>
+    <t>在国际友好力量的支持下，这场疫情防控阻击战我们一定能打赢！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +324,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,40 +651,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="13.9">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.9">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.9">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
